--- a/log.xlsx
+++ b/log.xlsx
@@ -8,23 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="10" sheetId="11" r:id="rId2"/>
-    <sheet name="9" sheetId="10" r:id="rId3"/>
-    <sheet name="8" sheetId="9" r:id="rId4"/>
-    <sheet name="7" sheetId="8" r:id="rId5"/>
-    <sheet name="6" sheetId="7" r:id="rId6"/>
-    <sheet name="5" sheetId="6" r:id="rId7"/>
-    <sheet name="4" sheetId="5" r:id="rId8"/>
-    <sheet name="3" sheetId="4" r:id="rId9"/>
-    <sheet name="2" sheetId="3" r:id="rId10"/>
-    <sheet name="1" sheetId="2" r:id="rId11"/>
+    <sheet name="12" sheetId="13" r:id="rId2"/>
+    <sheet name="11" sheetId="12" r:id="rId3"/>
+    <sheet name="10" sheetId="11" r:id="rId4"/>
+    <sheet name="9" sheetId="10" r:id="rId5"/>
+    <sheet name="8" sheetId="9" r:id="rId6"/>
+    <sheet name="7" sheetId="8" r:id="rId7"/>
+    <sheet name="6" sheetId="7" r:id="rId8"/>
+    <sheet name="5" sheetId="6" r:id="rId9"/>
+    <sheet name="4" sheetId="5" r:id="rId10"/>
+    <sheet name="3" sheetId="4" r:id="rId11"/>
+    <sheet name="2" sheetId="3" r:id="rId12"/>
+    <sheet name="1" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="223">
   <si>
     <t>1.  Create Scaffolds for New Objects</t>
   </si>
@@ -589,6 +591,111 @@
   </si>
   <si>
     <t>Precincts are up and running</t>
+  </si>
+  <si>
+    <t>Add Districts to Precincts</t>
+  </si>
+  <si>
+    <t>Goal: Add Districts to Precincts</t>
+  </si>
+  <si>
+    <t>1.  I need to double check that the associations are in place</t>
+  </si>
+  <si>
+    <t>Associations are good to go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  I am going to do this in the seeds file.  First I am going to create </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the "West Boone" Precinct.  Then I am going to create the associated </t>
+  </si>
+  <si>
+    <t>districts.</t>
+  </si>
+  <si>
+    <t>This has been done for awhile</t>
+  </si>
+  <si>
+    <t>Now I am going to begin trying to make the associations happen between</t>
+  </si>
+  <si>
+    <t>Precincts and Districts</t>
+  </si>
+  <si>
+    <t>Funny thing are happening with the District.office attribute.  It refused a string,</t>
+  </si>
+  <si>
+    <t>but accepted an office object.</t>
+  </si>
+  <si>
+    <t>Going to run some console tests on the association just to make sure it works</t>
+  </si>
+  <si>
+    <t>It's all set now I need to associate Politicians to Districts</t>
+  </si>
+  <si>
+    <t>First I am going to make sure that the Politicians/Districts Association is in place</t>
+  </si>
+  <si>
+    <t>This association looks good.  First I will make sure it works, and the make the</t>
+  </si>
+  <si>
+    <t>Politician/Precincts relationship</t>
+  </si>
+  <si>
+    <t>Totally stuck for no apparent reason</t>
+  </si>
+  <si>
+    <t>Finally finished it.  I think the problem was related to the seeds.rb file more than anything</t>
+  </si>
+  <si>
+    <t>Going to take a quick break and the come back and associate politicians with Precincts</t>
+  </si>
+  <si>
+    <t>Back in action.  Going to associated Politicians to Precints</t>
+  </si>
+  <si>
+    <t>a little bit unsure of what will happen with a has_many :through against a belongs_to</t>
+  </si>
+  <si>
+    <t>I successfully display a precinct's politicians in the show page</t>
+  </si>
+  <si>
+    <t>I am now going to apply the three column layout to all pages</t>
+  </si>
+  <si>
+    <t>Going to create dynamic menus for the landing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal: Create a dynamic menu for the landing page </t>
+  </si>
+  <si>
+    <t>1.  Watching the Railscast on dynamic menus</t>
+  </si>
+  <si>
+    <t>Beginning attempt to implement, don't understand collection_select</t>
+  </si>
+  <si>
+    <t>Put in a little bit of my own logic and it worked</t>
+  </si>
+  <si>
+    <t>2.  Now I am going to begin creating a New Politician Page</t>
+  </si>
+  <si>
+    <t>First, I need to create a place to put in the Politician's Name</t>
+  </si>
+  <si>
+    <t>Politicians New page is complete.  Now I need to do the _form</t>
+  </si>
+  <si>
+    <t>I think that I should connect offices to districts.  This will be problematic</t>
+  </si>
+  <si>
+    <t>for scaling beyond one state</t>
+  </si>
+  <si>
+    <t>All done</t>
   </si>
 </sst>
 </file>
@@ -721,13 +828,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -1643,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,12 +1852,291 @@
         <v>165</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40874</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40880</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.65555555555555556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.67499999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.8881944444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.89097222222222217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.89166666666666661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.89444444444444438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.90555555555555556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -1909,7 +2295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -1953,13 +2339,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1992,25 +2378,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.89166666666666661</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
@@ -2059,9 +2445,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.7319444444444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.74097222222222225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.76527777777777783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.77986111111111101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.78055555555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.7944444444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.80694444444444446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.81111111111111101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.81111111111111101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.81180555555555556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.84861111111111109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.86249999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.88958333333333339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.88958333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2071,7 +2727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B1" s="2">
@@ -2092,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2241,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2304,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2384,7 +3040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C56"/>
   <sheetViews>
@@ -2676,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -2823,267 +3479,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.59861111111111109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.65555555555555556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.67499999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1">
-        <v>40839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.88750000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.8881944444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.89097222222222217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.89166666666666661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.89444444444444438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.8979166666666667</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.90555555555555556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/log.xlsx
+++ b/log.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
   <si>
     <t>1.  Create Scaffolds for New Objects</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>All done</t>
+  </si>
+  <si>
+    <t>Going to begin authentication with Sorcery</t>
   </si>
 </sst>
 </file>
@@ -2445,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,6 +2529,14 @@
       </c>
       <c r="B17" s="2">
         <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.82013888888888886</v>
       </c>
     </row>
   </sheetData>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,25 +8,29 @@
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="12" sheetId="13" r:id="rId2"/>
-    <sheet name="11" sheetId="12" r:id="rId3"/>
-    <sheet name="10" sheetId="11" r:id="rId4"/>
-    <sheet name="9" sheetId="10" r:id="rId5"/>
-    <sheet name="8" sheetId="9" r:id="rId6"/>
-    <sheet name="7" sheetId="8" r:id="rId7"/>
-    <sheet name="6" sheetId="7" r:id="rId8"/>
-    <sheet name="5" sheetId="6" r:id="rId9"/>
-    <sheet name="4" sheetId="5" r:id="rId10"/>
-    <sheet name="3" sheetId="4" r:id="rId11"/>
-    <sheet name="2" sheetId="3" r:id="rId12"/>
-    <sheet name="1" sheetId="2" r:id="rId13"/>
+    <sheet name="15" sheetId="17" r:id="rId2"/>
+    <sheet name="14" sheetId="15" r:id="rId3"/>
+    <sheet name="13" sheetId="14" r:id="rId4"/>
+    <sheet name="12" sheetId="13" r:id="rId5"/>
+    <sheet name="11" sheetId="12" r:id="rId6"/>
+    <sheet name="10" sheetId="11" r:id="rId7"/>
+    <sheet name="9" sheetId="10" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
+    <sheet name="7" sheetId="8" r:id="rId10"/>
+    <sheet name="6" sheetId="7" r:id="rId11"/>
+    <sheet name="5" sheetId="6" r:id="rId12"/>
+    <sheet name="4" sheetId="5" r:id="rId13"/>
+    <sheet name="3" sheetId="4" r:id="rId14"/>
+    <sheet name="2" sheetId="3" r:id="rId15"/>
+    <sheet name="1" sheetId="2" r:id="rId16"/>
+    <sheet name="Alamance County" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="285">
   <si>
     <t>1.  Create Scaffolds for New Objects</t>
   </si>
@@ -699,13 +703,196 @@
   </si>
   <si>
     <t>Going to begin authentication with Sorcery</t>
+  </si>
+  <si>
+    <t>Finished User Authentication, and created a selection dropdown</t>
+  </si>
+  <si>
+    <t>Goal:  Link Up Politicians with Questions</t>
+  </si>
+  <si>
+    <t>1. Create Seeds File for Alamance</t>
+  </si>
+  <si>
+    <t>2.  Get Images Uploadable</t>
+  </si>
+  <si>
+    <t>3.  Get Stripe working</t>
+  </si>
+  <si>
+    <t>Goal: I want to create a seeds file for all of alamance county precincts</t>
+  </si>
+  <si>
+    <t>ALBRIGHT</t>
+  </si>
+  <si>
+    <t>BOONE 5</t>
+  </si>
+  <si>
+    <t>BURLINGTON 10</t>
+  </si>
+  <si>
+    <t>BURLINGTON 4</t>
+  </si>
+  <si>
+    <t>BURLINGTON 5</t>
+  </si>
+  <si>
+    <t>BURLINGTON 6</t>
+  </si>
+  <si>
+    <t>BURLINGTON 7</t>
+  </si>
+  <si>
+    <t>BURLINGTON 8</t>
+  </si>
+  <si>
+    <t>BURLINGTON 9</t>
+  </si>
+  <si>
+    <t>CENTRAL BOONE</t>
+  </si>
+  <si>
+    <t>COBLE</t>
+  </si>
+  <si>
+    <t>EAST BURLINGTON</t>
+  </si>
+  <si>
+    <t>EAST GRAHAM</t>
+  </si>
+  <si>
+    <t>FAUCETTE</t>
+  </si>
+  <si>
+    <t>GRAHAM 3</t>
+  </si>
+  <si>
+    <t>GRAHAM 4</t>
+  </si>
+  <si>
+    <t>HAW RIVER</t>
+  </si>
+  <si>
+    <t>MELVILLE 3</t>
+  </si>
+  <si>
+    <t>MORTON</t>
+  </si>
+  <si>
+    <t>NORTH BOONE</t>
+  </si>
+  <si>
+    <t>NORTH BOONE 2</t>
+  </si>
+  <si>
+    <t>NORTH BURLINGTON</t>
+  </si>
+  <si>
+    <t>NORTH GRAHAM</t>
+  </si>
+  <si>
+    <t>NORTH MELVILLE</t>
+  </si>
+  <si>
+    <t>NORTH NEWLIN</t>
+  </si>
+  <si>
+    <t>NORTH THOMPSON</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>PLEASANT GROVE</t>
+  </si>
+  <si>
+    <t>SOUTH BOONE</t>
+  </si>
+  <si>
+    <t>SOUTH BURLINGTON</t>
+  </si>
+  <si>
+    <t>SOUTH GRAHAM</t>
+  </si>
+  <si>
+    <t>SOUTH MELVILLE</t>
+  </si>
+  <si>
+    <t>SOUTH NEWLIN</t>
+  </si>
+  <si>
+    <t>SOUTH THOMPSON</t>
+  </si>
+  <si>
+    <t>WEST BOONE</t>
+  </si>
+  <si>
+    <t>WEST BURLINGTON</t>
+  </si>
+  <si>
+    <t>WEST GRAHAM</t>
+  </si>
+  <si>
+    <t>Precinct</t>
+  </si>
+  <si>
+    <t>NC House</t>
+  </si>
+  <si>
+    <t>NC Senate</t>
+  </si>
+  <si>
+    <t>Congressional</t>
+  </si>
+  <si>
+    <t>Precinct.new(name: "</t>
+  </si>
+  <si>
+    <t>")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication </t>
+  </si>
+  <si>
+    <t>Goal:  Have working Authentication</t>
+  </si>
+  <si>
+    <t>1.  Create a link that shows whether or not I am logged in</t>
+  </si>
+  <si>
+    <t>The link is there.  The politician log-in feature is not working.</t>
+  </si>
+  <si>
+    <t>Problem solved.  I am not entirely sure what the problem actually was.</t>
+  </si>
+  <si>
+    <t>Dear ASO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a handful of you already know, today is my last day with ASO.  Working here has been a great pleasure, and I have greatly enjoyed the chance to call many of you my teammates.  Way has led on to way.  The fact that I will not get the chance to partake in the second annual whiskey slap's meetup challenge is one of my greatest regrets, second only to the joy I will miss as SEO continues to dominate ASO and H9.  That said, I wish the very best for all three brands and the people who make them what they  are.  </t>
+  </si>
+  <si>
+    <t>2.  Make image uploading work</t>
+  </si>
+  <si>
+    <t>I need to figure out what the "no file chosen" error is</t>
+  </si>
+  <si>
+    <t>HUZZAH HUZZAH HUZZAH</t>
+  </si>
+  <si>
+    <t>3.  Time to Jquery UI in some sort of box in the middle</t>
+  </si>
+  <si>
+    <t>so that I can display multiple frames of information all in one place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,8 +946,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +976,14 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -809,6 +1009,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -819,7 +1032,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -832,6 +1045,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,6 +1685,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="B1:B38"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Precinct"/>
+    <tableColumn id="2" name="NC House"/>
+    <tableColumn id="3" name="NC Senate"/>
+    <tableColumn id="4" name="Congressional"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1753,16 +1988,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1871,12 +2106,567 @@
         <v>212</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40881</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40884</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40886</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.98541666666666661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.90694444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.9291666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.93194444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.6479166666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.65069444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.65208333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.68888888888888899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.69236111111111109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.7055555555555556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.72083333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.7319444444444444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.83124999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.83124999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.90972222222222221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.92847222222222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1975,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2139,7 +2929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -2298,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -2342,13 +3132,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2381,25 +3171,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2">
         <v>0.89166666666666661</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
@@ -2446,12 +3236,1407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1">
+        <f>IF(COUNTIF($L$4:$L$23,C1)&gt;0,63,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f>CONCATENATE(J3,K3,L3)</f>
+        <v>Precinct.new(name: "BURLINGTON 10")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="J4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f t="shared" ref="M4:M39" si="0">CONCATENATE(J4,K4,L4)</f>
+        <v>Precinct.new(name: "BURLINGTON 4")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="J5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BURLINGTON 5")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="J6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" t="s">
+        <v>272</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BURLINGTON 7")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="J7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BURLINGTON 8")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="J8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "EAST BURLINGTON")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "EAST GRAHAM")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="J10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "GRAHAM 3")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="J11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" t="s">
+        <v>272</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "HAW RIVER")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="J12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" t="s">
+        <v>272</v>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH BURLINGTON")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="J13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH GRAHAM")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="J14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" t="s">
+        <v>272</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH MELVILLE")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="J15" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "PLEASANT GROVE")</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="J16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH BURLINGTON")</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="J17" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH MELVILLE")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="J18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "WEST BURLINGTON")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="J19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "WEST GRAHAM")</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="J20" t="s">
+        <v>271</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "ALBRIGHT")</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="J21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BOONE 5")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="J22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BURLINGTON 6")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="J23" t="s">
+        <v>271</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "BURLINGTON 9")</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="J24" t="s">
+        <v>271</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>272</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "CENTRAL BOONE")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="J25" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "COBLE")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="J26" t="s">
+        <v>271</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "FAUCETTE")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="J27" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>272</v>
+      </c>
+      <c r="M27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "GRAHAM 4")</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "MELVILLE 3")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "MORTON")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH BOONE")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="J31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH BOONE 2")</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH NEWLIN")</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "NORTH THOMPSON")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "PATTERSON")</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH BOONE")</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH GRAHAM")</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH NEWLIN")</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "SOUTH THOMPSON")</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Precinct.new(name: "WEST BOONE")</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G40" s="10"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="10"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G42" s="10"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="10"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M69" s="10"/>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M70" s="10"/>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="10"/>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M74" s="10"/>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="10"/>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M79" s="10"/>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="10"/>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="10"/>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M82" s="10"/>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="10"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="10"/>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="10"/>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="10"/>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="10"/>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M88" s="10"/>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M89" s="10"/>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M90" s="10"/>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="10"/>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="10"/>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="10"/>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="10"/>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="M3:M95">
+    <sortCondition ref="M3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.61597222222222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.87708333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.87708333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.87083333333333324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -2724,7 +4909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2759,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2908,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2969,525 +5154,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0.98541666666666661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.90694444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.9291666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.93194444444444446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.64236111111111105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.6479166666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.65069444444444446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.65208333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.68263888888888891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.68680555555555556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.68888888888888899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.69236111111111109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.7055555555555556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.71736111111111101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.72083333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.7319444444444444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.83124999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.83124999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.84513888888888899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.90972222222222221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.92847222222222225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.93333333333333324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>